--- a/target/classes/com/qa/scenarios/HubspotScenarios.xlsx
+++ b/target/classes/com/qa/scenarios/HubspotScenarios.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satyaranjan.muduli\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Back Up\Project Work\Learning Stuffs\Eclipse Oxygen\KeywordDriverDemo\src\main\java\com\qa\scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,8 +13,9 @@
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
+    <sheet name="signup" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="37">
   <si>
     <t>TestStep</t>
   </si>
   <si>
-    <t>Locator</t>
-  </si>
-  <si>
     <t>Action</t>
   </si>
   <si>
@@ -56,15 +54,9 @@
     <t>enter url</t>
   </si>
   <si>
-    <t>https://www.app.hubspot.com/login</t>
-  </si>
-  <si>
     <t>Enter Email Address</t>
   </si>
   <si>
-    <t>id=username</t>
-  </si>
-  <si>
     <t>sendkeys</t>
   </si>
   <si>
@@ -74,18 +66,9 @@
     <t>Click on Login Button</t>
   </si>
   <si>
-    <t>id=loginBtn</t>
-  </si>
-  <si>
-    <t>naveenanimation20@gmail.co,</t>
-  </si>
-  <si>
     <t>Enter Password</t>
   </si>
   <si>
-    <t>id=password</t>
-  </si>
-  <si>
     <t>click</t>
   </si>
   <si>
@@ -98,7 +81,61 @@
     <t>Verify signup link</t>
   </si>
   <si>
-    <t>linkText=Sign up</t>
+    <t>https://app.hubspot.com/login</t>
+  </si>
+  <si>
+    <t>naveenanimation20@gmail.com</t>
+  </si>
+  <si>
+    <t>Locator Name</t>
+  </si>
+  <si>
+    <t>Locator Value</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>loginBtn</t>
+  </si>
+  <si>
+    <t>Sign up</t>
+  </si>
+  <si>
+    <t>linkText</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>xpath</t>
+  </si>
+  <si>
+    <t>//h1[text()='Sales Dashboard']</t>
+  </si>
+  <si>
+    <t>isDisplayed</t>
+  </si>
+  <si>
+    <t>className</t>
+  </si>
+  <si>
+    <t>getText</t>
+  </si>
+  <si>
+    <t>Sales Dahsboard</t>
+  </si>
+  <si>
+    <t>Verify Landed on Homepage</t>
+  </si>
+  <si>
+    <t>Get Homepage Landing header text</t>
+  </si>
+  <si>
+    <t>private-page__title</t>
   </si>
 </sst>
 </file>
@@ -172,13 +209,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -240,7 +278,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -292,7 +330,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -494,180 +532,289 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1"/>
+    <hyperlink ref="E4" r:id="rId2"/>
+    <hyperlink ref="E5" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>5</v>
+      <c r="E5" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1"/>
-    <hyperlink ref="D4" r:id="rId2"/>
-    <hyperlink ref="D5" r:id="rId3"/>
-    <hyperlink ref="D9" r:id="rId4"/>
+    <hyperlink ref="E3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/target/classes/com/qa/scenarios/HubspotScenarios.xlsx
+++ b/target/classes/com/qa/scenarios/HubspotScenarios.xlsx
@@ -1,23 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Back Up\Project Work\Learning Stuffs\Eclipse Oxygen\KeywordDriverDemo\src\main\java\com\qa\scenarios\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8985"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="8985" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
     <sheet name="signup" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -102,12 +97,6 @@
     <t>loginBtn</t>
   </si>
   <si>
-    <t>Sign up</t>
-  </si>
-  <si>
-    <t>linkText</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -136,13 +125,19 @@
   </si>
   <si>
     <t>private-page__title</t>
+  </si>
+  <si>
+    <t>cssSelector</t>
+  </si>
+  <si>
+    <t>.m-left-1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -524,21 +519,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
@@ -547,7 +542,7 @@
     <col min="5" max="5" width="34.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -564,7 +559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -581,7 +576,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -598,12 +593,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>22</v>
@@ -615,12 +610,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>23</v>
@@ -632,12 +627,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>24</v>
@@ -649,41 +644,41 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -712,12 +707,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
@@ -726,7 +723,7 @@
     <col min="5" max="5" width="34.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -743,7 +740,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -760,7 +757,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -777,15 +774,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>14</v>
@@ -794,7 +791,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
